--- a/REGULAR/OJT/DE VILLA, OFELIA.xlsx
+++ b/REGULAR/OJT/DE VILLA, OFELIA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="415">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1275,6 +1275,9 @@
   </si>
   <si>
     <t>5/22,23/2023</t>
+  </si>
+  <si>
+    <t>7/25,27,28/2023</t>
   </si>
 </sst>
 </file>
@@ -2322,7 +2325,7 @@
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A572" activePane="bottomLeft"/>
       <selection activeCell="A8" sqref="A8:J8"/>
-      <selection pane="bottomLeft" activeCell="D581" sqref="D581"/>
+      <selection pane="bottomLeft" activeCell="K581" sqref="K581"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2481,7 +2484,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>97.433000000000163</v>
+        <v>95.683000000000163</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2491,7 +2494,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>77.5</v>
+        <v>77.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14988,15 +14991,19 @@
       </c>
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A579" s="40"/>
+      <c r="A579" s="40">
+        <v>45078</v>
+      </c>
       <c r="B579" s="20"/>
-      <c r="C579" s="13"/>
+      <c r="C579" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D579" s="39"/>
       <c r="E579" s="9"/>
       <c r="F579" s="20"/>
-      <c r="G579" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G579" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H579" s="39"/>
       <c r="I579" s="9"/>
@@ -15004,8 +15011,12 @@
       <c r="K579" s="20"/>
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A580" s="40"/>
-      <c r="B580" s="20"/>
+      <c r="A580" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B580" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C580" s="13"/>
       <c r="D580" s="39"/>
       <c r="E580" s="9"/>
@@ -15014,16 +15025,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H580" s="39"/>
+      <c r="H580" s="39">
+        <v>1</v>
+      </c>
       <c r="I580" s="9"/>
       <c r="J580" s="11"/>
-      <c r="K580" s="20"/>
+      <c r="K580" s="49">
+        <v>45120</v>
+      </c>
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40"/>
-      <c r="B581" s="20"/>
+      <c r="B581" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="C581" s="13"/>
-      <c r="D581" s="39"/>
+      <c r="D581" s="39">
+        <v>3</v>
+      </c>
       <c r="E581" s="9"/>
       <c r="F581" s="20"/>
       <c r="G581" s="13" t="str">
@@ -15033,11 +15052,15 @@
       <c r="H581" s="39"/>
       <c r="I581" s="9"/>
       <c r="J581" s="11"/>
-      <c r="K581" s="20"/>
+      <c r="K581" s="20" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40"/>
-      <c r="B582" s="20"/>
+      <c r="B582" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C582" s="13"/>
       <c r="D582" s="39"/>
       <c r="E582" s="9"/>
@@ -15049,7 +15072,9 @@
       <c r="H582" s="39"/>
       <c r="I582" s="9"/>
       <c r="J582" s="11"/>
-      <c r="K582" s="20"/>
+      <c r="K582" s="49">
+        <v>45133</v>
+      </c>
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40"/>
